--- a/dados/corr/consulados_corr.xlsx
+++ b/dados/corr/consulados_corr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobernardonarciso/Documents/Abstenção/ffms-abstencao/dados/corr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27275C19-7C35-6E44-BE65-0AF021B87F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9C8994-524F-D44C-932D-6DEAC09A459B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="176">
   <si>
     <t>8102</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>CONGO</t>
+  </si>
+  <si>
+    <t>COREIA</t>
   </si>
 </sst>
 </file>
@@ -939,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2252,6 +2255,20 @@
         <v>143</v>
       </c>
     </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B94" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D94" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B76" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
